--- a/excel/ItemConfig.xlsx
+++ b/excel/ItemConfig.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cocos\Dinosaur-Park\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\DinosaurPark\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -111,81 +111,6 @@
     <t>icon/矿石高级</t>
   </si>
   <si>
-    <t>icon/初级拼图1</t>
-  </si>
-  <si>
-    <t>icon/初级拼图2</t>
-  </si>
-  <si>
-    <t>icon/初级拼图3</t>
-  </si>
-  <si>
-    <t>icon/初级拼图4</t>
-  </si>
-  <si>
-    <t>icon/初级拼图5</t>
-  </si>
-  <si>
-    <t>icon/初级拼图6</t>
-  </si>
-  <si>
-    <t>icon/初级拼图7</t>
-  </si>
-  <si>
-    <t>icon/初级拼图8</t>
-  </si>
-  <si>
-    <t>icon/初级拼图9</t>
-  </si>
-  <si>
-    <t>icon/初级拼图10</t>
-  </si>
-  <si>
-    <t>icon/中级拼图1</t>
-  </si>
-  <si>
-    <t>icon/中级拼图2</t>
-  </si>
-  <si>
-    <t>icon/中级拼图3</t>
-  </si>
-  <si>
-    <t>icon/中级拼图4</t>
-  </si>
-  <si>
-    <t>icon/中级拼图5</t>
-  </si>
-  <si>
-    <t>icon/中级拼图6</t>
-  </si>
-  <si>
-    <t>icon/中级拼图7</t>
-  </si>
-  <si>
-    <t>icon/中级拼图8</t>
-  </si>
-  <si>
-    <t>icon/中级拼图9</t>
-  </si>
-  <si>
-    <t>icon/中级拼图10</t>
-  </si>
-  <si>
-    <t>icon/中级拼图11</t>
-  </si>
-  <si>
-    <t>icon/中级拼图12</t>
-  </si>
-  <si>
-    <t>icon/中级拼图13</t>
-  </si>
-  <si>
-    <t>icon/中级拼图14</t>
-  </si>
-  <si>
-    <t>icon/中级拼图15</t>
-  </si>
-  <si>
     <t>stb_gem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,6 +225,84 @@
   </si>
   <si>
     <t>stb_debris|15</t>
+  </si>
+  <si>
+    <t>icon/拼图|初级拼图1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon/拼图|初级拼图2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon/拼图|初级拼图3</t>
+  </si>
+  <si>
+    <t>icon/拼图|初级拼图4</t>
+  </si>
+  <si>
+    <t>icon/拼图|初级拼图5</t>
+  </si>
+  <si>
+    <t>icon/拼图|初级拼图6</t>
+  </si>
+  <si>
+    <t>icon/拼图|初级拼图7</t>
+  </si>
+  <si>
+    <t>icon/拼图|初级拼图8</t>
+  </si>
+  <si>
+    <t>icon/拼图|初级拼图9</t>
+  </si>
+  <si>
+    <t>icon/拼图|初级拼图10</t>
+  </si>
+  <si>
+    <t>icon/拼图|中级拼图10</t>
+  </si>
+  <si>
+    <t>icon/拼图|中级拼图1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon/拼图|中级拼图2</t>
+  </si>
+  <si>
+    <t>icon/拼图|中级拼图3</t>
+  </si>
+  <si>
+    <t>icon/拼图|中级拼图4</t>
+  </si>
+  <si>
+    <t>icon/拼图|中级拼图5</t>
+  </si>
+  <si>
+    <t>icon/拼图|中级拼图6</t>
+  </si>
+  <si>
+    <t>icon/拼图|中级拼图7</t>
+  </si>
+  <si>
+    <t>icon/拼图|中级拼图8</t>
+  </si>
+  <si>
+    <t>icon/拼图|中级拼图9</t>
+  </si>
+  <si>
+    <t>icon/拼图|中级拼图11</t>
+  </si>
+  <si>
+    <t>icon/拼图|中级拼图12</t>
+  </si>
+  <si>
+    <t>icon/拼图|中级拼图13</t>
+  </si>
+  <si>
+    <t>icon/拼图|中级拼图14</t>
+  </si>
+  <si>
+    <t>icon/拼图|中级拼图15</t>
   </si>
 </sst>
 </file>
@@ -716,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -788,7 +791,7 @@
         <v>101</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -799,7 +802,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
@@ -810,7 +813,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>11</v>
@@ -821,7 +824,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>12</v>
@@ -832,7 +835,7 @@
         <v>201</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>13</v>
@@ -843,7 +846,7 @@
         <v>202</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>14</v>
@@ -854,7 +857,7 @@
         <v>203</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>15</v>
@@ -865,7 +868,7 @@
         <v>204</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -876,7 +879,7 @@
         <v>205</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>17</v>
@@ -887,7 +890,7 @@
         <v>206</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>18</v>
@@ -898,7 +901,7 @@
         <v>207</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>19</v>
@@ -909,7 +912,7 @@
         <v>208</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>
@@ -920,7 +923,7 @@
         <v>209</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -931,7 +934,7 @@
         <v>210</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>22</v>
@@ -942,7 +945,7 @@
         <v>211</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>23</v>
@@ -953,7 +956,7 @@
         <v>212</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>24</v>
@@ -964,7 +967,7 @@
         <v>213</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>25</v>
@@ -975,7 +978,7 @@
         <v>214</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>26</v>
@@ -986,7 +989,7 @@
         <v>215</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -997,10 +1000,10 @@
         <v>301</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="5" customFormat="1">
@@ -1008,10 +1011,10 @@
         <v>302</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="5" customFormat="1">
@@ -1019,10 +1022,10 @@
         <v>303</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="5" customFormat="1">
@@ -1030,10 +1033,10 @@
         <v>304</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="5" customFormat="1">
@@ -1041,10 +1044,10 @@
         <v>305</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="5" customFormat="1">
@@ -1052,10 +1055,10 @@
         <v>306</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="5" customFormat="1">
@@ -1063,10 +1066,10 @@
         <v>307</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="5" customFormat="1">
@@ -1074,10 +1077,10 @@
         <v>308</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="5" customFormat="1">
@@ -1085,10 +1088,10 @@
         <v>309</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="5" customFormat="1">
@@ -1096,10 +1099,10 @@
         <v>310</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="5" customFormat="1">
@@ -1107,10 +1110,10 @@
         <v>311</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="5" customFormat="1">
@@ -1118,10 +1121,10 @@
         <v>312</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="5" customFormat="1">
@@ -1129,10 +1132,10 @@
         <v>313</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="5" customFormat="1">
@@ -1140,10 +1143,10 @@
         <v>314</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="5" customFormat="1">
@@ -1151,10 +1154,10 @@
         <v>315</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="5" customFormat="1">
@@ -1162,10 +1165,10 @@
         <v>316</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="5" customFormat="1">
@@ -1173,10 +1176,10 @@
         <v>317</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="5" customFormat="1">
@@ -1184,10 +1187,10 @@
         <v>318</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="5" customFormat="1">
@@ -1195,10 +1198,10 @@
         <v>319</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="5" customFormat="1">
@@ -1206,10 +1209,10 @@
         <v>320</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="5" customFormat="1">
@@ -1217,10 +1220,10 @@
         <v>321</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="5" customFormat="1">
@@ -1228,10 +1231,10 @@
         <v>322</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="5" customFormat="1">
@@ -1239,10 +1242,10 @@
         <v>323</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="5" customFormat="1">
@@ -1250,10 +1253,10 @@
         <v>324</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="5" customFormat="1">
@@ -1261,10 +1264,10 @@
         <v>325</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/excel/ItemConfig.xlsx
+++ b/excel/ItemConfig.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\DinosaurPark\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CocosProject\DinosaurPark\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17868"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="89">
   <si>
     <t>id</t>
   </si>
@@ -303,6 +303,14 @@
   </si>
   <si>
     <t>icon/拼图|中级拼图15</t>
+  </si>
+  <si>
+    <t>加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon/拼图|中级拼图15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -717,21 +725,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.375" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6">
+    <row r="1" spans="1:3" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -742,7 +750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6">
+    <row r="2" spans="1:3" ht="16.5">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -753,7 +761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6">
+    <row r="3" spans="1:3" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -764,7 +772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.2">
+    <row r="4" spans="1:3" ht="15">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -775,7 +783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.2">
+    <row r="5" spans="1:3" ht="15">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -786,7 +794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="5" customFormat="1" ht="14.4" customHeight="1">
+    <row r="6" spans="1:3" s="5" customFormat="1" ht="14.45" customHeight="1">
       <c r="A6" s="4">
         <v>101</v>
       </c>
@@ -1268,6 +1276,17 @@
       </c>
       <c r="C49" s="4" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>401</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/excel/ItemConfig.xlsx
+++ b/excel/ItemConfig.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CocosProject\DinosaurPark\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\DinosaurPark\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17868"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
   <si>
     <t>id</t>
   </si>
@@ -305,11 +305,39 @@
     <t>icon/拼图|中级拼图15</t>
   </si>
   <si>
-    <t>加速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon/拼图|中级拼图15</t>
+    <t>2倍加速卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3倍加速卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4倍加速卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5倍加速卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2倍加速卡(免费)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon/二倍速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon/三倍速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon/四倍速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon/五倍速</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,21 +753,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="24.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5">
+    <row r="1" spans="1:3" ht="15.6">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -750,7 +778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5">
+    <row r="2" spans="1:3" ht="15.6">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -761,7 +789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5">
+    <row r="3" spans="1:3" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -772,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15">
+    <row r="4" spans="1:3" ht="16.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -783,7 +811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15">
+    <row r="5" spans="1:3" ht="16.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -794,7 +822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="5" customFormat="1" ht="14.45" customHeight="1">
+    <row r="6" spans="1:3" s="5" customFormat="1" ht="14.4" customHeight="1">
       <c r="A6" s="4">
         <v>101</v>
       </c>
@@ -1279,14 +1307,58 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>401</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="A50" s="4">
+        <v>402</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="4">
+        <v>403</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>88</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="4">
+        <v>404</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="4">
+        <v>405</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="4">
+        <v>412</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/excel/ItemConfig.xlsx
+++ b/excel/ItemConfig.xlsx
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="4">
-        <v>402</v>
+        <v>502</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>87</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="4">
-        <v>403</v>
+        <v>503</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>88</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="4">
-        <v>404</v>
+        <v>504</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>89</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="4">
-        <v>405</v>
+        <v>505</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>90</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="4">
-        <v>412</v>
+        <v>512</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>91</v>

--- a/excel/ItemConfig.xlsx
+++ b/excel/ItemConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="95">
   <si>
     <t>id</t>
   </si>
@@ -305,26 +305,6 @@
     <t>icon/拼图|中级拼图15</t>
   </si>
   <si>
-    <t>2倍加速卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3倍加速卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4倍加速卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5倍加速卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2倍加速卡(免费)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>icon/二倍速</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,6 +318,22 @@
   </si>
   <si>
     <t>icon/五倍速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_04|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_04|3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_04|4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_04|5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -756,7 +752,7 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="E54" activeCellId="2" sqref="B54 C57 E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1311,10 +1307,10 @@
         <v>502</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1322,10 +1318,10 @@
         <v>503</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1333,10 +1329,10 @@
         <v>504</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1344,10 +1340,10 @@
         <v>505</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1358,7 +1354,7 @@
         <v>91</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
